--- a/수업내용.xlsx
+++ b/수업내용.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gukbi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A40771F-6F09-4903-ABFB-2848C93D3D90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABE4FC0-CDFA-4491-BEAF-E5A6B3417BA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{0683FBCB-D051-4C43-AC5D-9ACF4C9D6504}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>수업내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>서보모터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pixy 카메라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070AAAF1-9549-419E-A249-B8A24ED68788}">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -464,6 +468,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>44792</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/수업내용.xlsx
+++ b/수업내용.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gukbi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABE4FC0-CDFA-4491-BEAF-E5A6B3417BA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E30E642-087A-4959-85BB-9D0485C60F52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{0683FBCB-D051-4C43-AC5D-9ACF4C9D6504}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>수업내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,14 @@
   </si>
   <si>
     <t>Pixy 카메라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070AAAF1-9549-419E-A249-B8A24ED68788}">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -476,6 +484,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>44795</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>44796</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
